--- a/吉田学園情報ビジネス専門学校_橋野幹生/02_AIM/01_開発環境/data/マップ.xlsx
+++ b/吉田学園情報ビジネス専門学校_橋野幹生/02_AIM/01_開発環境/data/マップ.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="マップ" sheetId="3" r:id="rId2"/>
     <sheet name="map2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -44,18 +44,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -229,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,9 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -276,7 +267,64 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2411,12 +2459,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AF3 A18:AF18 B9:AF10 A3:A4 A5:AF8 A11:AF16 A16:A17">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:AF10 A1:AF8 A11:AF18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2429,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2439,219 +2487,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3">
-        <v>1</v>
-      </c>
-      <c r="O1" s="3">
-        <v>1</v>
-      </c>
-      <c r="P1" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>1</v>
-      </c>
-      <c r="R1" s="3">
-        <v>1</v>
-      </c>
-      <c r="S1" s="3">
-        <v>1</v>
-      </c>
-      <c r="T1" s="3">
-        <v>1</v>
-      </c>
-      <c r="U1" s="3">
-        <v>1</v>
-      </c>
-      <c r="V1" s="3">
-        <v>1</v>
-      </c>
-      <c r="W1" s="3">
-        <v>1</v>
-      </c>
-      <c r="X1" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -2667,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2679,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -2691,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -2709,13 +2937,13 @@
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5" s="1">
         <v>1</v>
@@ -2744,123 +2972,215 @@
       <c r="AE5" s="1">
         <v>1</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
       <c r="T6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U6" s="1">
         <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>3</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
       <c r="AC6" s="1">
         <v>1</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="6"/>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
       <c r="T7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>3</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
       <c r="AC7" s="1">
         <v>1</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="6"/>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2875,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2902,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -2929,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="12">
         <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
@@ -2946,112 +3266,208 @@
       <c r="AE8" s="1">
         <v>1</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
       <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
       <c r="Q9" s="1">
-        <v>3</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
       <c r="Y9" s="1">
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="12">
         <v>1</v>
       </c>
       <c r="AB9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
       <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
       <c r="Q10" s="1">
-        <v>3</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
       <c r="Y10" s="1">
         <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="12">
         <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1">
@@ -3064,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3082,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -3118,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X11" s="1">
         <v>1</v>
@@ -3127,9 +3543,9 @@
         <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="12">
         <v>1</v>
       </c>
       <c r="AB11" s="1">
@@ -3144,123 +3560,215 @@
       <c r="AE11" s="1">
         <v>1</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="1">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
       <c r="Q12" s="1">
         <v>1</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
       <c r="W12" s="1">
-        <v>3</v>
-      </c>
-      <c r="X12" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
       <c r="Y12" s="1">
         <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
       <c r="W13" s="1">
-        <v>3</v>
-      </c>
-      <c r="X13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
       <c r="Y13" s="1">
         <v>1</v>
       </c>
       <c r="Z13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3272,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -3290,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -3314,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
@@ -3341,272 +3849,430 @@
         <v>1</v>
       </c>
       <c r="AD14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="1">
         <v>1</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
       <c r="M15" s="1">
-        <v>3</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="1">
-        <v>2</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
       <c r="AB15" s="1">
         <v>1</v>
       </c>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
       <c r="AD15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
       <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
       <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
       <c r="M16" s="1">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
       <c r="U16" s="1">
-        <v>2</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
       <c r="AB16" s="1">
         <v>1</v>
       </c>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
       <c r="AD16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
       <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
       <c r="G17" s="1">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
       <c r="M17" s="1">
-        <v>3</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="1">
-        <v>2</v>
-      </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
       <c r="AB17" s="1">
         <v>1</v>
       </c>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
       <c r="AD17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8">
-        <v>1</v>
-      </c>
-      <c r="P18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="8">
-        <v>1</v>
-      </c>
-      <c r="S18" s="8">
-        <v>1</v>
-      </c>
-      <c r="T18" s="8">
-        <v>1</v>
-      </c>
-      <c r="U18" s="8">
-        <v>1</v>
-      </c>
-      <c r="V18" s="8">
-        <v>1</v>
-      </c>
-      <c r="W18" s="8">
-        <v>1</v>
-      </c>
-      <c r="X18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="9">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AF3 A5:AF7 A18:AF18 A14:AF16 B9:B10 AF4 A4 E17 AB17 A11:Y13 A8:B8 AB11:AF13 Z8:Z13 AA8:AA11 AD8:AF10 AB8:AB10 AC8 E8:Y10 C8:C10 D8">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A18:AF18 AF4 A4 E17 AB17 A8:B8 AA8:AA11 AC8 D8 Z8:Z13 C8:C10 C14:C17 G14:G17 U14:U17 AB8:AB10 M15:M17 AD15:AD17 A1:AF3 B3:AE4 A5:AF7 B9:B10 E8:Z10 AD8:AF10 A11:Z13 AB11:AF13 A16:B17 D16:D17 F16:F17 H16:L17 N16:T17 V16:AA17 AC16:AC17 A14:AF16 AE16:AF17">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 A1:AF7 A14:AF18 A11:Y13 A8:B8 AB11:AF13 Z8:Z13 AA8:AA11 AD8:AF10 AB8:AB10 AC8 E8:Y10 C8:C10 D8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="A8:B8 AA8:AA11 AC8 D8 Z8:Z13 C8:C10 AB8:AB10 A1:AF7 B9:B10 E8:Z10 AD8:AF10 A11:Z13 AB11:AF13 A14:AF18">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AF7 A14:AF18 AB11:AF13 A11:Z13 AA8:AA11 AD8:AF10 AB8:AB10 AC8 E8:Z10 A8:C10 D8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="AA8:AA11 AC8 D8 Z9:Z13 AB8:AB10 A1:AF7 A8:C10 E8:Z10 AD8:AF10 A11:Z13 AB11:AF13 A14:AF18">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AF18">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3618,7 +4284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -5394,17 +6060,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F4 A3:E4 A1:AF3 G3:AF4 A5:AF8 B9:AF10 A11:AF18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AF8 B9:AF10 A11:AF18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
